--- a/excel.xlsx
+++ b/excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">TITULO</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">sonic VO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicked </t>
   </si>
 </sst>
 </file>
@@ -74,6 +80,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,11 +102,13 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,7 +190,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +199,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,19 +215,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,49 +407,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="17.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="10" style="2" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -453,7 +459,7 @@
       <c r="B2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>136</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -462,22 +468,18 @@
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.604166666666667</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.736111111111111</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.895833333333333</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="2" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -486,7 +488,7 @@
       <c r="B3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>132</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -495,22 +497,18 @@
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.6875</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.8125</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="2" t="n">
         <v>0.9375</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -528,22 +526,18 @@
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.6875</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.8125</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="2" t="n">
         <v>0.9375</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -561,20 +555,15 @@
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.6875</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.875</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -592,26 +581,21 @@
       <c r="E6" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -623,24 +607,18 @@
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.559027777777778</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -652,28 +630,58 @@
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.875</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.958333333333333</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.875</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
